--- a/Excel/Modèle-audit-SEO.xlsx
+++ b/Excel/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DEV/openclassroom/Projets/Projet4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DEV/openclassroom/Projets/Projet4/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444DC723-EF04-1048-909C-5DA3C0083405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E5730-FEB0-5841-B27D-F83518A13B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4100" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,61 +51,189 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t xml:space="preserve">logo onglet </t>
   </si>
   <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l'image de l'onglet est sous forme JPG au lieu de ICO ce qui ralentit le chargement de la page </t>
-  </si>
-  <si>
-    <t>mettre une image au format ICO</t>
-  </si>
-  <si>
-    <t>Utiliser des logo/image au format ICO pour l'affichage dans l'onglet</t>
-  </si>
-  <si>
-    <t>accessibilite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contraste des boutons </t>
-  </si>
-  <si>
-    <t>image format BMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ralentit considerablement la page, changer format et resolution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seo </t>
-  </si>
-  <si>
-    <t>image trop lourde</t>
-  </si>
-  <si>
-    <t>compresser l'image et changer la resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trop de lien dans le footer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cela nuit au referencement sur google </t>
-  </si>
-  <si>
-    <t xml:space="preserve">les logo des resseaux sociaux renvoie vers la meme page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">element avant et apres le logo non visible a cause du contraste </t>
-  </si>
-  <si>
     <t>langue en HTML "default"</t>
   </si>
   <si>
-    <t>il faut choisir une langue pour qu'on soitn mieux referencer géographiquement</t>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO </t>
+  </si>
+  <si>
+    <t>&lt;link rel="shortcut icon" type="image/png" href="favicon.jpg"&gt;</t>
+  </si>
+  <si>
+    <t>Mettre une image/logo au format ICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraste des boutons </t>
+  </si>
+  <si>
+    <t>Avor un ratio de contraste supérieur a 4.0:0</t>
+  </si>
+  <si>
+    <t>Image format BMP</t>
+  </si>
+  <si>
+    <t>&lt;a href="page2.html" class="btn btn-lg btn-clean btn-rd cta-hero btn-atomic-tangerine" id="cta-hero"&gt;Contact&lt;/a&gt;  ligne 74  =  Contrast Ratio: 2.22:1</t>
+  </si>
+  <si>
+    <t>Le contraste des boutons sont trop faibles, cela nuit a l'accessiblité de la page car c'est non adapté pour les personnes avec une mauvaise vue.</t>
+  </si>
+  <si>
+    <t>L'image de l'onglet est sous forme JPG au lieu de ICO ce qui ralentit le chargement de la page.</t>
+  </si>
+  <si>
+    <t>&lt;img src="img/3.bmp"…&gt; ligne 182                                            &lt;a href="#" data-lightbox="img/4.bmp"…&gt; ligne 191</t>
+  </si>
+  <si>
+    <t>Image trop lourde</t>
+  </si>
+  <si>
+    <t>Les images au format BMP ne sont pas adaptés pour les site interent. En effet, ils ne sont pas compressés et de ce fait sont trop lourdes ce qui affecte considerablement le temps de chargement de la page. 71ms et 68ms pour charger les éléments.</t>
+  </si>
+  <si>
+    <t>Changer le format des images de BMP à JPG/JPEG pour qu'elles soient compresser et donc moins lourdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compresser l'image </t>
+  </si>
+  <si>
+    <t>L'image est au format JPG, cependant ell est trop lourde.  Cela prend 68ms pour la charger alors que le site est ouvert en local.</t>
+  </si>
+  <si>
+    <t>&lt;a href="#" data-lightbox="img/1.jpg" data-gallery-id="gallery-1" data-caption="Refonte d'un site web pour un journal local" data-frame="snapshot-lb"&gt;&lt;img src="img/1.jpg" ligne 162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'énumération des liens vers d'autres sites dans le footer </t>
+  </si>
+  <si>
+    <t>Inserer des liens dans le footer est une pratique non recommander car cela nuit au référencement sur Google. En effet, GoogleBot veille à ce que le haut et les pieds des pages web présentent une structure parfaite. Cela signifie que les liens artificiels positionnés ne vont pas être pris en compte dans le PageRank.</t>
+  </si>
+  <si>
+    <t>Eviter de mettre sur la page : des baclinks de faibles qualité, liens articficiels, liens cassés …</t>
+  </si>
+  <si>
+    <t>Enlever les liens du footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemple :                                                                                  &lt;ul&gt;
+								&lt;li&gt;&lt;a href="voiture.com"&gt;voiture.com&lt;/a&gt;&lt;/li&gt;
+								&lt;li&gt;&lt;a href="pizza.com"&gt;pizza.com&lt;/a&gt;&lt;/li&gt;
+								&lt;li&gt;&lt;a href="matoiture.com"&gt;matoiture.com&lt;/a&gt;&lt;/li&gt;
+								&lt;li&gt;&lt;a href="immobilierseo.com"&gt;immobilierseo.com&lt;/a&gt;&lt;/li&gt;...
+								</t>
+  </si>
+  <si>
+    <t>Keyword dans les "alts" des images</t>
+  </si>
+  <si>
+    <t>SEO/Accessibilité</t>
+  </si>
+  <si>
+    <t>Compresser les images lourdes avec des outils comme "ImageOptim" sur MacOS pour que les images prennent moins de place et que la page se charge plus rapidement.</t>
+  </si>
+  <si>
+    <t>Utiliser des images au format jpg ou encore pnj (de préférence pour les logos).</t>
+  </si>
+  <si>
+    <t>Avoir un contraste plus important et surtout lorsqu'il y a du texte sur une image de fond.</t>
+  </si>
+  <si>
+    <t>Utiliser des logo/image au format ICO pour l'affichage dans l'onglet.</t>
+  </si>
+  <si>
+    <t>Enlever les "keywords" et mettre une description en cohérence avec l'image affichée</t>
+  </si>
+  <si>
+    <t>Mettre une description de l'image afficher afin de permettre aux personne souffrant de handicap comme par exemple les non-voyant, la possibilité de savoir ce qu'est l'image affichée.</t>
+  </si>
+  <si>
+    <t>Exemple : &lt;img src="img/2.jpg" class="img-responsive portfolio-thumb" alt="paris web design logo agence web meilleure agence, Création d'un site web pour photographes" /&gt; ligne 171</t>
+  </si>
+  <si>
+    <t>Au lieu d'une description des images, des "keywords" qui n'ont pas de rapport avec l'image affichée sont injecter sur le site via les "alt" des balises &lt;images&gt;</t>
+  </si>
+  <si>
+    <t>Keywords injecter directement dans une div sur la page</t>
+  </si>
+  <si>
+    <t>Des Keywords comme "Agence web à paris, stratégie web, web design, illustrations,…"  sont injecter directement dans la page via une div au lieu d'être dans des balises meta ce qui pénanlise le site au niveau du SEO auprès de Google</t>
+  </si>
+  <si>
+    <t>Mettre les "keywords" dans des balises meta.</t>
+  </si>
+  <si>
+    <t>Enlever les div avec la class "keywords"</t>
+  </si>
+  <si>
+    <t>&lt;div class="keywords" style="color:#cccccc;font-size:1px;"&gt;Agence web à paris, stratégie web, web design, illustrations, design de site web, site web, web, internet, site internet, site&lt;/div&gt; ligne 40 et 42</t>
+  </si>
+  <si>
+    <t>Choisir une langue en fonction de la localisation ghéographique pour etre mieux réferencer</t>
+  </si>
+  <si>
+    <t>Changer "default" par "fr" dans le HTML</t>
+  </si>
+  <si>
+    <t>&lt;html lang="Default"&gt; ligne 2</t>
+  </si>
+  <si>
+    <t>La langue du site n'est pas indiquée, elle est en "default". Cela pénalise le SEO, le site n'est pas bien reférencer geographiquement et au niveau de l'accessibilité, mettre une langue permet de faciliter la traduction automatique du contenue</t>
+  </si>
+  <si>
+    <t>Accessibilité/SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte non visible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les textes de la bannière sur la page 2 ne sont pas visible car ils ont la meme couleur que le fond </t>
+  </si>
+  <si>
+    <t>Avoir un meileur contraste et eviter de mettre le texte de la meme couleur que la couleur de fond</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="text-center hero-bloc-text tc-white"&gt;
+Parlons web design &lt;/h1&gt;. Ligne 65-71 page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la couleur de la police en noir par exemple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lien non visible en footer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des liens sont présent dans le footer cependant ils ne sont pas visible car ils ont une couleur transparente </t>
+  </si>
+  <si>
+    <t>Enlever les liens qui sont inutile, ils peuvent nuire au SEO</t>
+  </si>
+  <si>
+    <t>Enlever les liens dans le  footer</t>
+  </si>
+  <si>
+    <t>Dans le formulaire de la page 2, la case "comment nous avez-vous connu?" le type utilisé est e-mail alors que "text" serait le pl;us approprié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser le type = text </t>
+  </si>
+  <si>
+    <t>Mauvais "type" utiliser dans le formulaire dans la page 2</t>
+  </si>
+  <si>
+    <t>&lt;label&gt;
+Comment nous avez-vous connu ?&lt;/label&gt;
+&lt;input class="form-control" type="email" required id="input_504" /&gt; ligne 97-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le "input..type…" doit correspondre au type de contenue demander. Par exemple nom = texte, e-mail = e-mail et bien d'autres </t>
   </si>
 </sst>
 </file>
@@ -134,13 +262,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -177,14 +306,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,20 +537,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
     <col min="4" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,119 +594,231 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4"/>
+    <row r="10" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
+    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
-    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1803,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Excel/Modèle-audit-SEO.xlsx
+++ b/Excel/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DEV/openclassroom/Projets/Projet4/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E5730-FEB0-5841-B27D-F83518A13B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98176A13-F19F-2D49-92A7-E998BF230EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Catégorie</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">Le "input..type…" doit correspondre au type de contenue demander. Par exemple nom = texte, e-mail = e-mail et bien d'autres </t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,6 +636,9 @@
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -693,6 +699,9 @@
       <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -713,6 +722,9 @@
       <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -733,6 +745,9 @@
       <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -753,6 +768,9 @@
       <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="G9" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -791,6 +809,9 @@
         <v>59</v>
       </c>
       <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -810,6 +831,9 @@
       </c>
       <c r="F12" s="5" t="s">
         <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/Modèle-audit-SEO.xlsx
+++ b/Excel/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DEV/openclassroom/Projets/Projet4/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98176A13-F19F-2D49-92A7-E998BF230EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5FC607-5AC4-8541-8C2E-51098FFDC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Catégorie</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo onglet </t>
   </si>
   <si>
     <t>langue en HTML "default"</t>
@@ -236,7 +233,22 @@
     <t xml:space="preserve">Le "input..type…" doit correspondre au type de contenue demander. Par exemple nom = texte, e-mail = e-mail et bien d'autres </t>
   </si>
   <si>
-    <t>ok</t>
+    <t xml:space="preserve">Logo onglet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de &lt;label for=''&gt; dans le formulaire </t>
+  </si>
+  <si>
+    <t>Le formulaire de la page 2 ne contient pas de &lt;label for=''&gt; ce qui peut nuire au référencement du site, car lorsque la page est scanner par le GoogleBot, celui-ci peut interpreter cela comme une errerur et donc pénaliser le site. Cela nuie aussi à l'accessibilité car les éléments ne sont pas reconnu pour les personnes non-voyant etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre un "for=''" dans la balise label </t>
+  </si>
+  <si>
+    <t>Rajouter &lt;label for=''&gt; avec la description appropriée</t>
+  </si>
+  <si>
+    <t>Exemple &lt;div class="form-group"&gt; &lt;label&gt; Nom &lt;/label&gt; ligne 84-87</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,245 +617,252 @@
     </row>
     <row r="2" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
